--- a/code/build/results_MyFireflyD30_local_search/results_cec2017_30.xlsx
+++ b/code/build/results_MyFireflyD30_local_search/results_cec2017_30.xlsx
@@ -603,94 +603,94 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>65104498000</v>
+        <v>51727670000</v>
       </c>
       <c r="D2" t="n">
-        <v>2.579237148976779e+45</v>
+        <v>1.562215e+31</v>
       </c>
       <c r="E2" t="n">
-        <v>234352.04</v>
+        <v>315713.5</v>
       </c>
       <c r="F2" t="n">
-        <v>18783.198</v>
+        <v>1039.618</v>
       </c>
       <c r="G2" t="n">
-        <v>520.72504</v>
+        <v>470.3424</v>
       </c>
       <c r="H2" t="n">
-        <v>106.046386</v>
+        <v>81.05072</v>
       </c>
       <c r="I2" t="n">
-        <v>2530.0794</v>
+        <v>2190.092</v>
       </c>
       <c r="J2" t="n">
-        <v>433.07774</v>
+        <v>301.1468</v>
       </c>
       <c r="K2" t="n">
-        <v>23907.64</v>
+        <v>10703.63</v>
       </c>
       <c r="L2" t="n">
-        <v>6528.585000000001</v>
+        <v>3554.145</v>
       </c>
       <c r="M2" t="n">
-        <v>26591.028</v>
+        <v>12158.95</v>
       </c>
       <c r="N2" t="n">
-        <v>13150865800</v>
+        <v>5220492000</v>
       </c>
       <c r="O2" t="n">
-        <v>2817603540</v>
+        <v>349789300</v>
       </c>
       <c r="P2" t="n">
-        <v>9619129.800000001</v>
+        <v>3237127</v>
       </c>
       <c r="Q2" t="n">
-        <v>2592651200</v>
+        <v>196970100</v>
       </c>
       <c r="R2" t="n">
-        <v>2742.9708</v>
+        <v>1982.731</v>
       </c>
       <c r="S2" t="n">
-        <v>2186.0002</v>
+        <v>942.8218000000001</v>
       </c>
       <c r="T2" t="n">
-        <v>12685258.2</v>
+        <v>2005113</v>
       </c>
       <c r="U2" t="n">
-        <v>2460330460</v>
+        <v>101962600</v>
       </c>
       <c r="V2" t="n">
-        <v>1269.7196</v>
+        <v>429.4559</v>
       </c>
       <c r="W2" t="n">
-        <v>654.2976200000001</v>
+        <v>506.9383</v>
       </c>
       <c r="X2" t="n">
-        <v>7375.527800000001</v>
+        <v>3997.068</v>
       </c>
       <c r="Y2" t="n">
-        <v>1325.5076</v>
+        <v>1235.33</v>
       </c>
       <c r="Z2" t="n">
-        <v>1360.5806</v>
+        <v>1500.573</v>
       </c>
       <c r="AA2" t="n">
-        <v>4968.580400000001</v>
+        <v>1104.494</v>
       </c>
       <c r="AB2" t="n">
-        <v>10510.172</v>
+        <v>8761.129999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>1745.0926</v>
+        <v>960.7602000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>4298.9714</v>
+        <v>3066.39</v>
       </c>
       <c r="AE2" t="n">
-        <v>3800.7226</v>
+        <v>1531.782</v>
       </c>
       <c r="AF2" t="n">
-        <v>1240290978</v>
+        <v>10810050</v>
       </c>
       <c r="AG2" t="n">
         <v>30</v>
@@ -704,94 +704,94 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>65104498000</v>
+        <v>23944000000</v>
       </c>
       <c r="D3" t="n">
-        <v>3.577520897677052e+43</v>
+        <v>6.377251e+25</v>
       </c>
       <c r="E3" t="n">
-        <v>234352.04</v>
+        <v>294532.5</v>
       </c>
       <c r="F3" t="n">
-        <v>18783.198</v>
+        <v>307.4609</v>
       </c>
       <c r="G3" t="n">
-        <v>520.72504</v>
+        <v>436.4261</v>
       </c>
       <c r="H3" t="n">
-        <v>106.046386</v>
+        <v>72.92538</v>
       </c>
       <c r="I3" t="n">
-        <v>2379.7592</v>
+        <v>1150.109</v>
       </c>
       <c r="J3" t="n">
-        <v>433.07774</v>
+        <v>301.0486</v>
       </c>
       <c r="K3" t="n">
-        <v>20420.558</v>
+        <v>9724.130999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>6528.585000000001</v>
+        <v>3283.578</v>
       </c>
       <c r="M3" t="n">
-        <v>23852.568</v>
+        <v>9703.262000000001</v>
       </c>
       <c r="N3" t="n">
-        <v>13136711800</v>
+        <v>1410719000</v>
       </c>
       <c r="O3" t="n">
-        <v>2817603540</v>
+        <v>20120030</v>
       </c>
       <c r="P3" t="n">
-        <v>8412719.6</v>
+        <v>2948389</v>
       </c>
       <c r="Q3" t="n">
-        <v>2242649640</v>
+        <v>5102335</v>
       </c>
       <c r="R3" t="n">
-        <v>2742.9708</v>
+        <v>1526.687</v>
       </c>
       <c r="S3" t="n">
-        <v>2186.0002</v>
+        <v>786.927</v>
       </c>
       <c r="T3" t="n">
-        <v>12685258.2</v>
+        <v>1341197</v>
       </c>
       <c r="U3" t="n">
-        <v>1877500060</v>
+        <v>173884.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1222.1098</v>
+        <v>419.665</v>
       </c>
       <c r="W3" t="n">
-        <v>654.26648</v>
+        <v>504.1587</v>
       </c>
       <c r="X3" t="n">
-        <v>7375.527800000001</v>
+        <v>3940.423</v>
       </c>
       <c r="Y3" t="n">
-        <v>1246.6496</v>
+        <v>1195.089</v>
       </c>
       <c r="Z3" t="n">
-        <v>1360.5806</v>
+        <v>1362.673</v>
       </c>
       <c r="AA3" t="n">
-        <v>4965.2508</v>
+        <v>723.8651</v>
       </c>
       <c r="AB3" t="n">
-        <v>10170.709</v>
+        <v>7676.104</v>
       </c>
       <c r="AC3" t="n">
-        <v>1512.88452</v>
+        <v>915.2242</v>
       </c>
       <c r="AD3" t="n">
-        <v>4298.9714</v>
+        <v>2310.921</v>
       </c>
       <c r="AE3" t="n">
-        <v>3800.7226</v>
+        <v>1521.18</v>
       </c>
       <c r="AF3" t="n">
-        <v>556230792</v>
+        <v>168178.9</v>
       </c>
       <c r="AG3" t="n">
         <v>30</v>
@@ -805,94 +805,94 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>65104498000</v>
+        <v>4539541000</v>
       </c>
       <c r="D4" t="n">
-        <v>3.577520897677052e+43</v>
+        <v>2.222734e+16</v>
       </c>
       <c r="E4" t="n">
-        <v>211816.64</v>
+        <v>288162.6</v>
       </c>
       <c r="F4" t="n">
-        <v>18783.198</v>
+        <v>124.5344</v>
       </c>
       <c r="G4" t="n">
-        <v>520.72504</v>
+        <v>389.1402</v>
       </c>
       <c r="H4" t="n">
-        <v>106.046386</v>
+        <v>64.25073999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>2366.8734</v>
+        <v>1028.826</v>
       </c>
       <c r="J4" t="n">
-        <v>433.07774</v>
+        <v>301.0436</v>
       </c>
       <c r="K4" t="n">
-        <v>20420.558</v>
+        <v>9259.903</v>
       </c>
       <c r="L4" t="n">
-        <v>6528.585000000001</v>
+        <v>3140.667</v>
       </c>
       <c r="M4" t="n">
-        <v>20009.1774</v>
+        <v>9196.182000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>11110365000</v>
+        <v>37324750</v>
       </c>
       <c r="O4" t="n">
-        <v>2817603540</v>
+        <v>426993.3</v>
       </c>
       <c r="P4" t="n">
-        <v>8412719.6</v>
+        <v>2702573</v>
       </c>
       <c r="Q4" t="n">
-        <v>1822510680</v>
+        <v>8251.118</v>
       </c>
       <c r="R4" t="n">
-        <v>2742.9708</v>
+        <v>1506.187</v>
       </c>
       <c r="S4" t="n">
-        <v>1946.1024</v>
+        <v>771.7142</v>
       </c>
       <c r="T4" t="n">
-        <v>12685258.2</v>
+        <v>1324425</v>
       </c>
       <c r="U4" t="n">
-        <v>1842659260</v>
+        <v>11909.81</v>
       </c>
       <c r="V4" t="n">
-        <v>1222.1098</v>
+        <v>419.5378</v>
       </c>
       <c r="W4" t="n">
-        <v>654.26648</v>
+        <v>503.0634</v>
       </c>
       <c r="X4" t="n">
-        <v>7375.527800000001</v>
+        <v>3934.886</v>
       </c>
       <c r="Y4" t="n">
-        <v>1246.6496</v>
+        <v>1145.016</v>
       </c>
       <c r="Z4" t="n">
-        <v>1325.9164</v>
+        <v>1353.195</v>
       </c>
       <c r="AA4" t="n">
-        <v>4965.2508</v>
+        <v>538.3533</v>
       </c>
       <c r="AB4" t="n">
-        <v>10170.709</v>
+        <v>7341.16</v>
       </c>
       <c r="AC4" t="n">
-        <v>1512.88452</v>
+        <v>813.4001</v>
       </c>
       <c r="AD4" t="n">
-        <v>4298.9714</v>
+        <v>1197.349</v>
       </c>
       <c r="AE4" t="n">
-        <v>3800.7226</v>
+        <v>1457.357</v>
       </c>
       <c r="AF4" t="n">
-        <v>555688914</v>
+        <v>78036.94</v>
       </c>
       <c r="AG4" t="n">
         <v>30</v>
@@ -906,94 +906,94 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>65104498000</v>
+        <v>17016970</v>
       </c>
       <c r="D5" t="n">
-        <v>3.577520897677052e+43</v>
+        <v>786187500000000</v>
       </c>
       <c r="E5" t="n">
-        <v>197266.4</v>
+        <v>271070.9</v>
       </c>
       <c r="F5" t="n">
-        <v>18783.198</v>
+        <v>80.10776</v>
       </c>
       <c r="G5" t="n">
-        <v>520.72504</v>
+        <v>379.5653</v>
       </c>
       <c r="H5" t="n">
-        <v>100.388792</v>
+        <v>63.92143</v>
       </c>
       <c r="I5" t="n">
-        <v>2262.0884</v>
+        <v>607.4032999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>433.07774</v>
+        <v>301.0436</v>
       </c>
       <c r="K5" t="n">
-        <v>20420.558</v>
+        <v>8698.661</v>
       </c>
       <c r="L5" t="n">
-        <v>6528.585000000001</v>
+        <v>3140.628</v>
       </c>
       <c r="M5" t="n">
-        <v>17042.4028</v>
+        <v>8213.164000000001</v>
       </c>
       <c r="N5" t="n">
-        <v>11110365000</v>
+        <v>2760086</v>
       </c>
       <c r="O5" t="n">
-        <v>2817603540</v>
+        <v>16225.97</v>
       </c>
       <c r="P5" t="n">
-        <v>8412719.6</v>
+        <v>2363084</v>
       </c>
       <c r="Q5" t="n">
-        <v>1592197940</v>
+        <v>280.9022</v>
       </c>
       <c r="R5" t="n">
-        <v>2742.9708</v>
+        <v>1436.394</v>
       </c>
       <c r="S5" t="n">
-        <v>1946.1024</v>
+        <v>771.4326</v>
       </c>
       <c r="T5" t="n">
-        <v>12685258.2</v>
+        <v>1305755</v>
       </c>
       <c r="U5" t="n">
-        <v>1842659260</v>
+        <v>8721.087</v>
       </c>
       <c r="V5" t="n">
-        <v>1157.30842</v>
+        <v>419.5297</v>
       </c>
       <c r="W5" t="n">
-        <v>630.6136</v>
+        <v>501.6425</v>
       </c>
       <c r="X5" t="n">
-        <v>7375.527800000001</v>
+        <v>3928.853</v>
       </c>
       <c r="Y5" t="n">
-        <v>1202.3852</v>
+        <v>1125.133</v>
       </c>
       <c r="Z5" t="n">
-        <v>1223.8138</v>
+        <v>1353.122</v>
       </c>
       <c r="AA5" t="n">
-        <v>4965.2508</v>
+        <v>456.3251</v>
       </c>
       <c r="AB5" t="n">
-        <v>10170.709</v>
+        <v>6400.609</v>
       </c>
       <c r="AC5" t="n">
-        <v>1512.88452</v>
+        <v>665.9184</v>
       </c>
       <c r="AD5" t="n">
-        <v>4298.9714</v>
+        <v>609.5441</v>
       </c>
       <c r="AE5" t="n">
-        <v>3800.7226</v>
+        <v>1454.795</v>
       </c>
       <c r="AF5" t="n">
-        <v>555688914</v>
+        <v>47963.68</v>
       </c>
       <c r="AG5" t="n">
         <v>30</v>
@@ -1007,94 +1007,94 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>65104498000</v>
+        <v>16932760</v>
       </c>
       <c r="D6" t="n">
-        <v>3.577520897677052e+43</v>
+        <v>786187500000000</v>
       </c>
       <c r="E6" t="n">
-        <v>173728.44</v>
+        <v>150808.4</v>
       </c>
       <c r="F6" t="n">
-        <v>18783.198</v>
+        <v>70.64749999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>520.72504</v>
+        <v>379.5653</v>
       </c>
       <c r="H6" t="n">
-        <v>100.388792</v>
+        <v>63.49608</v>
       </c>
       <c r="I6" t="n">
-        <v>2262.0884</v>
+        <v>603.4675999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>433.07774</v>
+        <v>301.0436</v>
       </c>
       <c r="K6" t="n">
-        <v>20420.558</v>
+        <v>8698.630999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>6528.585000000001</v>
+        <v>3140.628</v>
       </c>
       <c r="M6" t="n">
-        <v>17042.4028</v>
+        <v>6557.417</v>
       </c>
       <c r="N6" t="n">
-        <v>8871484200</v>
+        <v>2749865</v>
       </c>
       <c r="O6" t="n">
-        <v>2817603540</v>
+        <v>15841.7</v>
       </c>
       <c r="P6" t="n">
-        <v>5425510.8</v>
+        <v>2363030</v>
       </c>
       <c r="Q6" t="n">
-        <v>1592197940</v>
+        <v>220.2999</v>
       </c>
       <c r="R6" t="n">
-        <v>2742.9708</v>
+        <v>1427.249</v>
       </c>
       <c r="S6" t="n">
-        <v>1846.8396</v>
+        <v>771.3501</v>
       </c>
       <c r="T6" t="n">
-        <v>12685258.2</v>
+        <v>1291887</v>
       </c>
       <c r="U6" t="n">
-        <v>1842659260</v>
+        <v>8714.446</v>
       </c>
       <c r="V6" t="n">
-        <v>1068.11974</v>
+        <v>419.5297</v>
       </c>
       <c r="W6" t="n">
-        <v>630.6136</v>
+        <v>501.6425</v>
       </c>
       <c r="X6" t="n">
-        <v>7375.527800000001</v>
+        <v>3928.853</v>
       </c>
       <c r="Y6" t="n">
-        <v>1142.3312</v>
+        <v>1123.567</v>
       </c>
       <c r="Z6" t="n">
-        <v>1223.8138</v>
+        <v>1353.122</v>
       </c>
       <c r="AA6" t="n">
-        <v>4965.2508</v>
+        <v>437.3704</v>
       </c>
       <c r="AB6" t="n">
-        <v>10170.709</v>
+        <v>6389.349</v>
       </c>
       <c r="AC6" t="n">
-        <v>1512.88452</v>
+        <v>635.0683</v>
       </c>
       <c r="AD6" t="n">
-        <v>4298.9714</v>
+        <v>608.3465</v>
       </c>
       <c r="AE6" t="n">
-        <v>3800.7226</v>
+        <v>1454.526</v>
       </c>
       <c r="AF6" t="n">
-        <v>555688914</v>
+        <v>40735.82</v>
       </c>
       <c r="AG6" t="n">
         <v>30</v>
@@ -1108,94 +1108,94 @@
         <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>65104498000</v>
+        <v>5469.261</v>
       </c>
       <c r="D7" t="n">
-        <v>3.577520897677052e+43</v>
+        <v>1864015000000</v>
       </c>
       <c r="E7" t="n">
-        <v>173728.44</v>
+        <v>138717.7</v>
       </c>
       <c r="F7" t="n">
-        <v>18783.198</v>
+        <v>68.5155</v>
       </c>
       <c r="G7" t="n">
-        <v>520.72504</v>
+        <v>379.5653</v>
       </c>
       <c r="H7" t="n">
-        <v>100.388792</v>
+        <v>18.61245</v>
       </c>
       <c r="I7" t="n">
-        <v>2262.0884</v>
+        <v>327.1684</v>
       </c>
       <c r="J7" t="n">
-        <v>433.07774</v>
+        <v>259.3101</v>
       </c>
       <c r="K7" t="n">
-        <v>18977.518</v>
+        <v>8327.294</v>
       </c>
       <c r="L7" t="n">
-        <v>6528.585000000001</v>
+        <v>3140.628</v>
       </c>
       <c r="M7" t="n">
-        <v>15734.638</v>
+        <v>1574.77</v>
       </c>
       <c r="N7" t="n">
-        <v>8871484200</v>
+        <v>1142035</v>
       </c>
       <c r="O7" t="n">
-        <v>2817603540</v>
+        <v>15810.03</v>
       </c>
       <c r="P7" t="n">
-        <v>5425510.8</v>
+        <v>2038739</v>
       </c>
       <c r="Q7" t="n">
-        <v>1079290560</v>
+        <v>195.0651</v>
       </c>
       <c r="R7" t="n">
-        <v>2742.9708</v>
+        <v>1417.167</v>
       </c>
       <c r="S7" t="n">
-        <v>1846.8396</v>
+        <v>770.5803</v>
       </c>
       <c r="T7" t="n">
-        <v>12685258.2</v>
+        <v>1219718</v>
       </c>
       <c r="U7" t="n">
-        <v>1842659260</v>
+        <v>8705.050999999999</v>
       </c>
       <c r="V7" t="n">
-        <v>1068.11974</v>
+        <v>419.4878</v>
       </c>
       <c r="W7" t="n">
-        <v>630.6136</v>
+        <v>495.4266</v>
       </c>
       <c r="X7" t="n">
-        <v>7375.527800000001</v>
+        <v>3928.849</v>
       </c>
       <c r="Y7" t="n">
-        <v>1142.3312</v>
+        <v>1111.854</v>
       </c>
       <c r="Z7" t="n">
-        <v>1223.8138</v>
+        <v>1353.122</v>
       </c>
       <c r="AA7" t="n">
-        <v>4965.2508</v>
+        <v>412.4007</v>
       </c>
       <c r="AB7" t="n">
-        <v>10170.709</v>
+        <v>6201.289</v>
       </c>
       <c r="AC7" t="n">
-        <v>1512.88452</v>
+        <v>614.4986</v>
       </c>
       <c r="AD7" t="n">
-        <v>4298.9714</v>
+        <v>500.1091</v>
       </c>
       <c r="AE7" t="n">
-        <v>3800.7226</v>
+        <v>1429.482</v>
       </c>
       <c r="AF7" t="n">
-        <v>555688914</v>
+        <v>5822.228</v>
       </c>
       <c r="AG7" t="n">
         <v>30</v>
@@ -1209,94 +1209,94 @@
         <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>65104498000</v>
+        <v>5467.055</v>
       </c>
       <c r="D8" t="n">
-        <v>3.577520897677052e+43</v>
+        <v>1001093000000</v>
       </c>
       <c r="E8" t="n">
-        <v>173728.44</v>
+        <v>111448.6</v>
       </c>
       <c r="F8" t="n">
-        <v>18783.198</v>
+        <v>68.28955000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>520.72504</v>
+        <v>379.5653</v>
       </c>
       <c r="H8" t="n">
-        <v>100.388792</v>
+        <v>7.629082</v>
       </c>
       <c r="I8" t="n">
-        <v>2262.0884</v>
+        <v>280.3684</v>
       </c>
       <c r="J8" t="n">
-        <v>433.07774</v>
+        <v>216.8994</v>
       </c>
       <c r="K8" t="n">
-        <v>18977.518</v>
+        <v>7970.618</v>
       </c>
       <c r="L8" t="n">
-        <v>6528.585000000001</v>
+        <v>3140.628</v>
       </c>
       <c r="M8" t="n">
-        <v>15734.638</v>
+        <v>354.9759</v>
       </c>
       <c r="N8" t="n">
-        <v>8871484200</v>
+        <v>613480.7</v>
       </c>
       <c r="O8" t="n">
-        <v>2817603540</v>
+        <v>15654.09</v>
       </c>
       <c r="P8" t="n">
-        <v>5425510.8</v>
+        <v>1775288</v>
       </c>
       <c r="Q8" t="n">
-        <v>1079290560</v>
+        <v>195.0229</v>
       </c>
       <c r="R8" t="n">
-        <v>2742.9708</v>
+        <v>1416.936</v>
       </c>
       <c r="S8" t="n">
-        <v>1846.8396</v>
+        <v>770.3878</v>
       </c>
       <c r="T8" t="n">
-        <v>12685258.2</v>
+        <v>1143837</v>
       </c>
       <c r="U8" t="n">
-        <v>1842659260</v>
+        <v>8678.112999999999</v>
       </c>
       <c r="V8" t="n">
-        <v>1068.11974</v>
+        <v>392.6239</v>
       </c>
       <c r="W8" t="n">
-        <v>630.6136</v>
+        <v>495.4266</v>
       </c>
       <c r="X8" t="n">
-        <v>7375.527800000001</v>
+        <v>3928.849</v>
       </c>
       <c r="Y8" t="n">
-        <v>1142.3312</v>
+        <v>1111.854</v>
       </c>
       <c r="Z8" t="n">
-        <v>1223.8138</v>
+        <v>1353.122</v>
       </c>
       <c r="AA8" t="n">
-        <v>4965.2508</v>
+        <v>412.1635</v>
       </c>
       <c r="AB8" t="n">
-        <v>10170.709</v>
+        <v>5676.783</v>
       </c>
       <c r="AC8" t="n">
-        <v>1512.88452</v>
+        <v>571.2988</v>
       </c>
       <c r="AD8" t="n">
-        <v>4298.9714</v>
+        <v>418.188</v>
       </c>
       <c r="AE8" t="n">
-        <v>3800.7226</v>
+        <v>1337.011</v>
       </c>
       <c r="AF8" t="n">
-        <v>555688914</v>
+        <v>5540.117</v>
       </c>
       <c r="AG8" t="n">
         <v>30</v>
@@ -1310,94 +1310,94 @@
         <v>40</v>
       </c>
       <c r="C9" t="n">
-        <v>65104498000</v>
+        <v>5464.7</v>
       </c>
       <c r="D9" t="n">
-        <v>3.577520897677052e+43</v>
+        <v>21937410000</v>
       </c>
       <c r="E9" t="n">
-        <v>173728.44</v>
+        <v>95066.12</v>
       </c>
       <c r="F9" t="n">
-        <v>18783.198</v>
+        <v>67.83197</v>
       </c>
       <c r="G9" t="n">
-        <v>520.72504</v>
+        <v>379.5653</v>
       </c>
       <c r="H9" t="n">
-        <v>100.388792</v>
+        <v>7.276873</v>
       </c>
       <c r="I9" t="n">
-        <v>2262.0884</v>
+        <v>183.4233</v>
       </c>
       <c r="J9" t="n">
-        <v>433.07774</v>
+        <v>216.8994</v>
       </c>
       <c r="K9" t="n">
-        <v>18977.518</v>
+        <v>7922.165</v>
       </c>
       <c r="L9" t="n">
-        <v>6528.585000000001</v>
+        <v>3140.628</v>
       </c>
       <c r="M9" t="n">
-        <v>15734.638</v>
+        <v>262.4077</v>
       </c>
       <c r="N9" t="n">
-        <v>8871484200</v>
+        <v>351687.2</v>
       </c>
       <c r="O9" t="n">
-        <v>2817603540</v>
+        <v>15652.72</v>
       </c>
       <c r="P9" t="n">
-        <v>5425510.8</v>
+        <v>1524090</v>
       </c>
       <c r="Q9" t="n">
-        <v>1079290560</v>
+        <v>194.9941</v>
       </c>
       <c r="R9" t="n">
-        <v>2742.9708</v>
+        <v>1416.749</v>
       </c>
       <c r="S9" t="n">
-        <v>1846.8396</v>
+        <v>770.3372000000001</v>
       </c>
       <c r="T9" t="n">
-        <v>12685258.2</v>
+        <v>1075431</v>
       </c>
       <c r="U9" t="n">
-        <v>1842659260</v>
+        <v>8672.438</v>
       </c>
       <c r="V9" t="n">
-        <v>1068.11974</v>
+        <v>392.6239</v>
       </c>
       <c r="W9" t="n">
-        <v>630.6136</v>
+        <v>495.4266</v>
       </c>
       <c r="X9" t="n">
-        <v>7375.527800000001</v>
+        <v>3928.849</v>
       </c>
       <c r="Y9" t="n">
-        <v>1142.3312</v>
+        <v>1043.288</v>
       </c>
       <c r="Z9" t="n">
-        <v>1223.8138</v>
+        <v>1353.122</v>
       </c>
       <c r="AA9" t="n">
-        <v>4965.2508</v>
+        <v>412.1635</v>
       </c>
       <c r="AB9" t="n">
-        <v>10170.709</v>
+        <v>4948.004</v>
       </c>
       <c r="AC9" t="n">
-        <v>1512.88452</v>
+        <v>564.2443</v>
       </c>
       <c r="AD9" t="n">
-        <v>4298.9714</v>
+        <v>415.9802</v>
       </c>
       <c r="AE9" t="n">
-        <v>3800.7226</v>
+        <v>1219.475</v>
       </c>
       <c r="AF9" t="n">
-        <v>555688914</v>
+        <v>5472.09</v>
       </c>
       <c r="AG9" t="n">
         <v>30</v>
@@ -1411,94 +1411,94 @@
         <v>50</v>
       </c>
       <c r="C10" t="n">
-        <v>65104498000</v>
+        <v>5462.303</v>
       </c>
       <c r="D10" t="n">
-        <v>3.577520897677052e+43</v>
+        <v>21937410000</v>
       </c>
       <c r="E10" t="n">
-        <v>173728.44</v>
+        <v>82664.91</v>
       </c>
       <c r="F10" t="n">
-        <v>18783.198</v>
+        <v>66.28331</v>
       </c>
       <c r="G10" t="n">
-        <v>520.72504</v>
+        <v>379.5653</v>
       </c>
       <c r="H10" t="n">
-        <v>100.388792</v>
+        <v>5.638273</v>
       </c>
       <c r="I10" t="n">
-        <v>2262.0884</v>
+        <v>183.4233</v>
       </c>
       <c r="J10" t="n">
-        <v>433.07774</v>
+        <v>216.8994</v>
       </c>
       <c r="K10" t="n">
-        <v>18977.518</v>
+        <v>7641.821</v>
       </c>
       <c r="L10" t="n">
-        <v>6528.585000000001</v>
+        <v>3140.628</v>
       </c>
       <c r="M10" t="n">
-        <v>15734.638</v>
+        <v>258.7141</v>
       </c>
       <c r="N10" t="n">
-        <v>8871484200</v>
+        <v>214345.6</v>
       </c>
       <c r="O10" t="n">
-        <v>2817603540</v>
+        <v>15651.03</v>
       </c>
       <c r="P10" t="n">
-        <v>5425510.8</v>
+        <v>1313379</v>
       </c>
       <c r="Q10" t="n">
-        <v>1079290560</v>
+        <v>194.9615</v>
       </c>
       <c r="R10" t="n">
-        <v>2742.9708</v>
+        <v>1416.616</v>
       </c>
       <c r="S10" t="n">
-        <v>1846.8396</v>
+        <v>770.3232</v>
       </c>
       <c r="T10" t="n">
-        <v>12685258.2</v>
+        <v>1004522</v>
       </c>
       <c r="U10" t="n">
-        <v>1842659260</v>
+        <v>8671.58</v>
       </c>
       <c r="V10" t="n">
-        <v>1068.11974</v>
+        <v>392.6239</v>
       </c>
       <c r="W10" t="n">
-        <v>630.6136</v>
+        <v>475.7803</v>
       </c>
       <c r="X10" t="n">
-        <v>7375.527800000001</v>
+        <v>3928.849</v>
       </c>
       <c r="Y10" t="n">
-        <v>1142.3312</v>
+        <v>1043.287</v>
       </c>
       <c r="Z10" t="n">
-        <v>1223.8138</v>
+        <v>1353.122</v>
       </c>
       <c r="AA10" t="n">
-        <v>4965.2508</v>
+        <v>412.1635</v>
       </c>
       <c r="AB10" t="n">
-        <v>10170.709</v>
+        <v>4948.004</v>
       </c>
       <c r="AC10" t="n">
-        <v>1512.88452</v>
+        <v>564.2443</v>
       </c>
       <c r="AD10" t="n">
-        <v>4298.9714</v>
+        <v>413.5073</v>
       </c>
       <c r="AE10" t="n">
-        <v>3800.7226</v>
+        <v>1218.874</v>
       </c>
       <c r="AF10" t="n">
-        <v>555688914</v>
+        <v>5358.231</v>
       </c>
       <c r="AG10" t="n">
         <v>30</v>
@@ -1512,94 +1512,94 @@
         <v>60</v>
       </c>
       <c r="C11" t="n">
-        <v>65104498000</v>
+        <v>5460.147</v>
       </c>
       <c r="D11" t="n">
-        <v>3.577520897677052e+43</v>
+        <v>21937410000</v>
       </c>
       <c r="E11" t="n">
-        <v>173728.44</v>
+        <v>71929.55</v>
       </c>
       <c r="F11" t="n">
-        <v>18783.198</v>
+        <v>0.9600457</v>
       </c>
       <c r="G11" t="n">
-        <v>520.72504</v>
+        <v>379.5653</v>
       </c>
       <c r="H11" t="n">
-        <v>100.388792</v>
+        <v>1.938206</v>
       </c>
       <c r="I11" t="n">
-        <v>2262.0884</v>
+        <v>183.4233</v>
       </c>
       <c r="J11" t="n">
-        <v>433.07774</v>
+        <v>216.8994</v>
       </c>
       <c r="K11" t="n">
-        <v>18977.518</v>
+        <v>6830.311</v>
       </c>
       <c r="L11" t="n">
-        <v>6528.585000000001</v>
+        <v>3140.628</v>
       </c>
       <c r="M11" t="n">
-        <v>15734.638</v>
+        <v>258.7134</v>
       </c>
       <c r="N11" t="n">
-        <v>8871484200</v>
+        <v>145954.1</v>
       </c>
       <c r="O11" t="n">
-        <v>2817603540</v>
+        <v>15649.04</v>
       </c>
       <c r="P11" t="n">
-        <v>5425510.8</v>
+        <v>1238512</v>
       </c>
       <c r="Q11" t="n">
-        <v>1079290560</v>
+        <v>194.9351</v>
       </c>
       <c r="R11" t="n">
-        <v>2742.9708</v>
+        <v>1416.504</v>
       </c>
       <c r="S11" t="n">
-        <v>1846.8396</v>
+        <v>770.3187</v>
       </c>
       <c r="T11" t="n">
-        <v>12685258.2</v>
+        <v>950765.5</v>
       </c>
       <c r="U11" t="n">
-        <v>1842659260</v>
+        <v>8670.700000000001</v>
       </c>
       <c r="V11" t="n">
-        <v>1068.11974</v>
+        <v>392.6239</v>
       </c>
       <c r="W11" t="n">
-        <v>630.6136</v>
+        <v>475.7803</v>
       </c>
       <c r="X11" t="n">
-        <v>7375.527800000001</v>
+        <v>3928.849</v>
       </c>
       <c r="Y11" t="n">
-        <v>1142.3312</v>
+        <v>1043.287</v>
       </c>
       <c r="Z11" t="n">
-        <v>1223.8138</v>
+        <v>1353.122</v>
       </c>
       <c r="AA11" t="n">
-        <v>4965.2508</v>
+        <v>412.1635</v>
       </c>
       <c r="AB11" t="n">
-        <v>10170.709</v>
+        <v>4948.004</v>
       </c>
       <c r="AC11" t="n">
-        <v>1512.88452</v>
+        <v>564.2443</v>
       </c>
       <c r="AD11" t="n">
-        <v>4298.9714</v>
+        <v>411.5513</v>
       </c>
       <c r="AE11" t="n">
-        <v>3800.7226</v>
+        <v>1218.874</v>
       </c>
       <c r="AF11" t="n">
-        <v>555688914</v>
+        <v>5339.936</v>
       </c>
       <c r="AG11" t="n">
         <v>30</v>
@@ -1613,94 +1613,94 @@
         <v>70</v>
       </c>
       <c r="C12" t="n">
-        <v>65104498000</v>
+        <v>5457.655</v>
       </c>
       <c r="D12" t="n">
-        <v>3.577520897677052e+43</v>
+        <v>21937410000</v>
       </c>
       <c r="E12" t="n">
-        <v>173728.44</v>
+        <v>64029.21</v>
       </c>
       <c r="F12" t="n">
-        <v>18783.198</v>
+        <v>0.3555024</v>
       </c>
       <c r="G12" t="n">
-        <v>520.72504</v>
+        <v>360.7056</v>
       </c>
       <c r="H12" t="n">
-        <v>100.388792</v>
+        <v>0.4230479</v>
       </c>
       <c r="I12" t="n">
-        <v>2262.0884</v>
+        <v>183.4233</v>
       </c>
       <c r="J12" t="n">
-        <v>433.07774</v>
+        <v>216.8994</v>
       </c>
       <c r="K12" t="n">
-        <v>18977.518</v>
+        <v>6557.022</v>
       </c>
       <c r="L12" t="n">
-        <v>6528.585000000001</v>
+        <v>3140.628</v>
       </c>
       <c r="M12" t="n">
-        <v>15734.638</v>
+        <v>258.7126</v>
       </c>
       <c r="N12" t="n">
-        <v>8871484200</v>
+        <v>113212.4</v>
       </c>
       <c r="O12" t="n">
-        <v>2817603540</v>
+        <v>15646.7</v>
       </c>
       <c r="P12" t="n">
-        <v>5425510.8</v>
+        <v>1175413</v>
       </c>
       <c r="Q12" t="n">
-        <v>1079290560</v>
+        <v>194.9131</v>
       </c>
       <c r="R12" t="n">
-        <v>2742.9708</v>
+        <v>1416.416</v>
       </c>
       <c r="S12" t="n">
-        <v>1846.8396</v>
+        <v>770.3175</v>
       </c>
       <c r="T12" t="n">
-        <v>12685258.2</v>
+        <v>890138.9</v>
       </c>
       <c r="U12" t="n">
-        <v>1842659260</v>
+        <v>8669.936</v>
       </c>
       <c r="V12" t="n">
-        <v>1068.11974</v>
+        <v>392.6239</v>
       </c>
       <c r="W12" t="n">
-        <v>630.6136</v>
+        <v>475.7803</v>
       </c>
       <c r="X12" t="n">
-        <v>7375.527800000001</v>
+        <v>3928.849</v>
       </c>
       <c r="Y12" t="n">
-        <v>1142.3312</v>
+        <v>1043.287</v>
       </c>
       <c r="Z12" t="n">
-        <v>1223.8138</v>
+        <v>1353.122</v>
       </c>
       <c r="AA12" t="n">
-        <v>4965.2508</v>
+        <v>412.1635</v>
       </c>
       <c r="AB12" t="n">
-        <v>10170.709</v>
+        <v>4948.004</v>
       </c>
       <c r="AC12" t="n">
-        <v>1512.88452</v>
+        <v>564.2443</v>
       </c>
       <c r="AD12" t="n">
-        <v>4298.9714</v>
+        <v>410.0102</v>
       </c>
       <c r="AE12" t="n">
-        <v>3800.7226</v>
+        <v>1218.874</v>
       </c>
       <c r="AF12" t="n">
-        <v>555688914</v>
+        <v>5320.187</v>
       </c>
       <c r="AG12" t="n">
         <v>30</v>
@@ -1714,94 +1714,94 @@
         <v>80</v>
       </c>
       <c r="C13" t="n">
-        <v>65104498000</v>
+        <v>5455.309</v>
       </c>
       <c r="D13" t="n">
-        <v>3.577520897677052e+43</v>
+        <v>21937410000</v>
       </c>
       <c r="E13" t="n">
-        <v>173728.44</v>
+        <v>57851.14</v>
       </c>
       <c r="F13" t="n">
-        <v>18783.198</v>
+        <v>0.3234271</v>
       </c>
       <c r="G13" t="n">
-        <v>520.72504</v>
+        <v>360.6612</v>
       </c>
       <c r="H13" t="n">
-        <v>100.388792</v>
+        <v>0.1131411</v>
       </c>
       <c r="I13" t="n">
-        <v>2262.0884</v>
+        <v>183.4233</v>
       </c>
       <c r="J13" t="n">
-        <v>433.07774</v>
+        <v>216.8994</v>
       </c>
       <c r="K13" t="n">
-        <v>18977.518</v>
+        <v>6340.215</v>
       </c>
       <c r="L13" t="n">
-        <v>6528.585000000001</v>
+        <v>3140.628</v>
       </c>
       <c r="M13" t="n">
-        <v>15734.638</v>
+        <v>258.7119</v>
       </c>
       <c r="N13" t="n">
-        <v>8871484200</v>
+        <v>93162.39</v>
       </c>
       <c r="O13" t="n">
-        <v>2817603540</v>
+        <v>15642.4</v>
       </c>
       <c r="P13" t="n">
-        <v>5425510.8</v>
+        <v>1129133</v>
       </c>
       <c r="Q13" t="n">
-        <v>1079290560</v>
+        <v>194.8949</v>
       </c>
       <c r="R13" t="n">
-        <v>2742.9708</v>
+        <v>1416.323</v>
       </c>
       <c r="S13" t="n">
-        <v>1846.8396</v>
+        <v>770.317</v>
       </c>
       <c r="T13" t="n">
-        <v>12685258.2</v>
+        <v>845938.6</v>
       </c>
       <c r="U13" t="n">
-        <v>1842659260</v>
+        <v>8669.022000000001</v>
       </c>
       <c r="V13" t="n">
-        <v>1068.11974</v>
+        <v>392.6239</v>
       </c>
       <c r="W13" t="n">
-        <v>630.6136</v>
+        <v>475.7803</v>
       </c>
       <c r="X13" t="n">
-        <v>7375.527800000001</v>
+        <v>3872.218</v>
       </c>
       <c r="Y13" t="n">
-        <v>1142.3312</v>
+        <v>1043.287</v>
       </c>
       <c r="Z13" t="n">
-        <v>1223.8138</v>
+        <v>1353.122</v>
       </c>
       <c r="AA13" t="n">
-        <v>4965.2508</v>
+        <v>412.1635</v>
       </c>
       <c r="AB13" t="n">
-        <v>10170.709</v>
+        <v>4862.098</v>
       </c>
       <c r="AC13" t="n">
-        <v>1512.88452</v>
+        <v>564.2443</v>
       </c>
       <c r="AD13" t="n">
-        <v>4298.9714</v>
+        <v>408.9383</v>
       </c>
       <c r="AE13" t="n">
-        <v>3800.7226</v>
+        <v>1207.411</v>
       </c>
       <c r="AF13" t="n">
-        <v>555688914</v>
+        <v>5311.288</v>
       </c>
       <c r="AG13" t="n">
         <v>30</v>
@@ -1815,94 +1815,94 @@
         <v>90</v>
       </c>
       <c r="C14" t="n">
-        <v>65104498000</v>
+        <v>5452.324</v>
       </c>
       <c r="D14" t="n">
-        <v>3.577520897677052e+43</v>
+        <v>21937410000</v>
       </c>
       <c r="E14" t="n">
-        <v>173728.44</v>
+        <v>52034.8</v>
       </c>
       <c r="F14" t="n">
-        <v>18783.198</v>
+        <v>0.2951864</v>
       </c>
       <c r="G14" t="n">
-        <v>520.72504</v>
+        <v>360.6612</v>
       </c>
       <c r="H14" t="n">
-        <v>100.388792</v>
+        <v>1.535113e-09</v>
       </c>
       <c r="I14" t="n">
-        <v>2262.0884</v>
+        <v>183.4233</v>
       </c>
       <c r="J14" t="n">
-        <v>433.07774</v>
+        <v>216.8994</v>
       </c>
       <c r="K14" t="n">
-        <v>18977.518</v>
+        <v>6339.827</v>
       </c>
       <c r="L14" t="n">
-        <v>6528.585000000001</v>
+        <v>3140.628</v>
       </c>
       <c r="M14" t="n">
-        <v>15734.638</v>
+        <v>258.7113</v>
       </c>
       <c r="N14" t="n">
-        <v>8871484200</v>
+        <v>77007.67</v>
       </c>
       <c r="O14" t="n">
-        <v>2817603540</v>
+        <v>15640.27</v>
       </c>
       <c r="P14" t="n">
-        <v>5425510.8</v>
+        <v>1072848</v>
       </c>
       <c r="Q14" t="n">
-        <v>1079290560</v>
+        <v>194.8769</v>
       </c>
       <c r="R14" t="n">
-        <v>2742.9708</v>
+        <v>1416.258</v>
       </c>
       <c r="S14" t="n">
-        <v>1846.8396</v>
+        <v>770.3169</v>
       </c>
       <c r="T14" t="n">
-        <v>12685258.2</v>
+        <v>795680</v>
       </c>
       <c r="U14" t="n">
-        <v>1842659260</v>
+        <v>8668.093000000001</v>
       </c>
       <c r="V14" t="n">
-        <v>1068.11974</v>
+        <v>392.6239</v>
       </c>
       <c r="W14" t="n">
-        <v>630.6136</v>
+        <v>475.7803</v>
       </c>
       <c r="X14" t="n">
-        <v>7375.527800000001</v>
+        <v>3872.217</v>
       </c>
       <c r="Y14" t="n">
-        <v>1142.3312</v>
+        <v>1043.287</v>
       </c>
       <c r="Z14" t="n">
-        <v>1223.8138</v>
+        <v>1353.122</v>
       </c>
       <c r="AA14" t="n">
-        <v>4965.2508</v>
+        <v>412.1635</v>
       </c>
       <c r="AB14" t="n">
-        <v>10170.709</v>
+        <v>4862.098</v>
       </c>
       <c r="AC14" t="n">
-        <v>1512.88452</v>
+        <v>564.2443</v>
       </c>
       <c r="AD14" t="n">
-        <v>4298.9714</v>
+        <v>408.0388</v>
       </c>
       <c r="AE14" t="n">
-        <v>3800.7226</v>
+        <v>1166.813</v>
       </c>
       <c r="AF14" t="n">
-        <v>555688914</v>
+        <v>5303.278</v>
       </c>
       <c r="AG14" t="n">
         <v>30</v>
@@ -1916,94 +1916,94 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>65104498000</v>
+        <v>5450.011</v>
       </c>
       <c r="D15" t="n">
-        <v>3.577520897677052e+43</v>
+        <v>21937410000</v>
       </c>
       <c r="E15" t="n">
-        <v>173728.44</v>
+        <v>47018.54</v>
       </c>
       <c r="F15" t="n">
-        <v>18783.198</v>
+        <v>0.266381</v>
       </c>
       <c r="G15" t="n">
-        <v>520.72504</v>
+        <v>360.6612</v>
       </c>
       <c r="H15" t="n">
-        <v>100.388792</v>
+        <v>3.274181e-11</v>
       </c>
       <c r="I15" t="n">
-        <v>2262.0884</v>
+        <v>183.4233</v>
       </c>
       <c r="J15" t="n">
-        <v>433.07774</v>
+        <v>216.8994</v>
       </c>
       <c r="K15" t="n">
-        <v>18977.518</v>
+        <v>6339.688</v>
       </c>
       <c r="L15" t="n">
-        <v>6528.585000000001</v>
+        <v>3140.628</v>
       </c>
       <c r="M15" t="n">
-        <v>15734.638</v>
+        <v>258.7107</v>
       </c>
       <c r="N15" t="n">
-        <v>8871484200</v>
+        <v>67433.17999999999</v>
       </c>
       <c r="O15" t="n">
-        <v>2817603540</v>
+        <v>15638.07</v>
       </c>
       <c r="P15" t="n">
-        <v>5425510.8</v>
+        <v>1023387</v>
       </c>
       <c r="Q15" t="n">
-        <v>1079290560</v>
+        <v>194.859</v>
       </c>
       <c r="R15" t="n">
-        <v>2742.9708</v>
+        <v>1416.206</v>
       </c>
       <c r="S15" t="n">
-        <v>1846.8396</v>
+        <v>770.3167999999999</v>
       </c>
       <c r="T15" t="n">
-        <v>12685258.2</v>
+        <v>755765</v>
       </c>
       <c r="U15" t="n">
-        <v>1842659260</v>
+        <v>8667.192999999999</v>
       </c>
       <c r="V15" t="n">
-        <v>1068.11974</v>
+        <v>392.6239</v>
       </c>
       <c r="W15" t="n">
-        <v>630.6136</v>
+        <v>475.7803</v>
       </c>
       <c r="X15" t="n">
-        <v>7375.527800000001</v>
+        <v>3872.217</v>
       </c>
       <c r="Y15" t="n">
-        <v>1142.3312</v>
+        <v>1043.287</v>
       </c>
       <c r="Z15" t="n">
-        <v>1223.8138</v>
+        <v>1353.122</v>
       </c>
       <c r="AA15" t="n">
-        <v>4965.2508</v>
+        <v>412.1635</v>
       </c>
       <c r="AB15" t="n">
-        <v>10170.709</v>
+        <v>4862.098</v>
       </c>
       <c r="AC15" t="n">
-        <v>1512.88452</v>
+        <v>564.2443</v>
       </c>
       <c r="AD15" t="n">
-        <v>4298.9714</v>
+        <v>407.2694</v>
       </c>
       <c r="AE15" t="n">
-        <v>3800.7226</v>
+        <v>1157.131</v>
       </c>
       <c r="AF15" t="n">
-        <v>555688914</v>
+        <v>5281.501</v>
       </c>
       <c r="AG15" t="n">
         <v>30</v>
